--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/15/seed5/result_data_RandomForest.xlsx
@@ -482,10 +482,10 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.714500000000003</v>
+        <v>6.848400000000002</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.7426</v>
+        <v>-11.65199999999999</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.0292</v>
+        <v>16.0407</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.0679</v>
+        <v>16.226</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.6189</v>
+        <v>-21.6162</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.997999999999995</v>
+        <v>6.616199999999997</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.18979999999999</v>
+        <v>17.1022</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.4221</v>
+        <v>16.413</v>
       </c>
     </row>
     <row r="16">
@@ -729,7 +729,7 @@
         <v>-7.82</v>
       </c>
       <c r="E17" t="n">
-        <v>16.31630000000001</v>
+        <v>16.40400000000001</v>
       </c>
     </row>
     <row r="18">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.3122</v>
+        <v>-11.54880000000001</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -859,7 +859,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.27330000000001</v>
+        <v>-13.20550000000001</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.059000000000005</v>
+        <v>4.056500000000006</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -882,12 +882,12 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>15.98970000000001</v>
+        <v>15.93970000000001</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.68</v>
+        <v>-21.5368</v>
       </c>
       <c r="B27" t="n">
         <v>5.54</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.3539</v>
+        <v>-12.28159999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.260100000000002</v>
+        <v>4.854800000000003</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.48210000000002</v>
+        <v>-21.36330000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>9.128800000000007</v>
+        <v>9.146900000000006</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.9673</v>
+        <v>-20.0643</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.46480000000001</v>
+        <v>16.49820000000002</v>
       </c>
     </row>
     <row r="37">
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.570400000000001</v>
+        <v>8.509300000000003</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.4532</v>
+        <v>-19.3995</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.06259999999998</v>
+        <v>-12.98879999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>6.671899999999998</v>
+        <v>6.5651</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.35860000000001</v>
+        <v>-21.39260000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1233,7 +1233,7 @@
         <v>6.74</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.1489</v>
+        <v>-12.1855</v>
       </c>
       <c r="D47" t="n">
         <v>-8.5</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.284599999999998</v>
+        <v>5.181800000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.59179999999999</v>
+        <v>-21.68939999999999</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.62220000000001</v>
+        <v>-22.7794</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>-22.15550000000001</v>
+        <v>-22.1362</v>
       </c>
       <c r="B56" t="n">
         <v>4.42</v>
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.767299999999997</v>
+        <v>4.933999999999996</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1420,7 +1420,7 @@
         <v>3.7</v>
       </c>
       <c r="C58" t="n">
-        <v>-13.2865</v>
+        <v>-13.21810000000001</v>
       </c>
       <c r="D58" t="n">
         <v>-7.51</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.4115</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.52659999999998</v>
+        <v>-21.57269999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.63929999999997</v>
+        <v>-21.61239999999999</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-22.17350000000001</v>
+        <v>-22.06620000000001</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1760,7 +1760,7 @@
         <v>9.640000000000001</v>
       </c>
       <c r="C78" t="n">
-        <v>-11.1437</v>
+        <v>-11.15930000000001</v>
       </c>
       <c r="D78" t="n">
         <v>-6.53</v>
@@ -1783,7 +1783,7 @@
         <v>-4.8</v>
       </c>
       <c r="E79" t="n">
-        <v>18.14470000000001</v>
+        <v>18.32850000000002</v>
       </c>
     </row>
     <row r="80">
@@ -1808,7 +1808,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>6.598699999999999</v>
+        <v>6.577599999999999</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1839,10 +1839,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.6094</v>
+        <v>-20.50749999999998</v>
       </c>
       <c r="B83" t="n">
-        <v>8.404799999999996</v>
+        <v>7.9364</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.65729999999999</v>
+        <v>-13.52329999999999</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1890,7 +1890,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-22.03730000000001</v>
+        <v>-22.0388</v>
       </c>
       <c r="B86" t="n">
         <v>4.69</v>
@@ -1947,13 +1947,13 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.6971</v>
+        <v>-10.7665</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.46230000000001</v>
+        <v>17.48640000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,13 +1975,13 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.53270000000001</v>
+        <v>-21.57639999999999</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.2884</v>
+        <v>-11.14319999999999</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.5347</v>
+        <v>-11.44049999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.28639999999999</v>
+        <v>-21.2234</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.8963</v>
+        <v>-12.5897</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.10639999999999</v>
+        <v>-20.25119999999998</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.285399999999997</v>
+        <v>5.516799999999998</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
@@ -2165,10 +2165,10 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.985400000000004</v>
+        <v>8.032400000000003</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.08390000000001</v>
+        <v>-13.3321</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
